--- a/SchedulingData/static8/pso/scheduling1_6.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_6.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>56.64</v>
+        <v>49.9</v>
       </c>
       <c r="E2" t="n">
-        <v>27.536</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>48.42</v>
+        <v>44.1</v>
       </c>
       <c r="E3" t="n">
-        <v>26.348</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>106.1</v>
       </c>
       <c r="E4" t="n">
-        <v>26.1</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>49.9</v>
+        <v>41.92</v>
       </c>
       <c r="E5" t="n">
-        <v>26.2</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="6">
@@ -542,74 +542,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>41.92</v>
       </c>
       <c r="D6" t="n">
-        <v>56.52</v>
+        <v>135.68</v>
       </c>
       <c r="E6" t="n">
-        <v>26.048</v>
+        <v>23.212</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>49.9</v>
       </c>
       <c r="D7" t="n">
-        <v>76.73999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>25.996</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>56.64</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>121.44</v>
+        <v>145.14</v>
       </c>
       <c r="E8" t="n">
-        <v>22.196</v>
+        <v>20.936</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48.42</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>92.90000000000001</v>
+        <v>73.88</v>
       </c>
       <c r="E9" t="n">
-        <v>22.54</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="10">
@@ -618,17 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>49.9</v>
+        <v>145.14</v>
       </c>
       <c r="D10" t="n">
-        <v>126.18</v>
+        <v>204.04</v>
       </c>
       <c r="E10" t="n">
-        <v>22.152</v>
+        <v>17.156</v>
       </c>
     </row>
     <row r="11">
@@ -637,36 +637,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>46</v>
+        <v>44.1</v>
       </c>
       <c r="D11" t="n">
-        <v>105.12</v>
+        <v>101.2</v>
       </c>
       <c r="E11" t="n">
-        <v>22.788</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>105.12</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>150.68</v>
+        <v>77.2</v>
       </c>
       <c r="E12" t="n">
-        <v>18.872</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="13">
@@ -675,264 +675,264 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>92.90000000000001</v>
+        <v>106.1</v>
       </c>
       <c r="D13" t="n">
-        <v>149.4</v>
+        <v>160.94</v>
       </c>
       <c r="E13" t="n">
-        <v>19.02</v>
+        <v>22.656</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>121.44</v>
+        <v>204.04</v>
       </c>
       <c r="D14" t="n">
-        <v>177.28</v>
+        <v>296.14</v>
       </c>
       <c r="E14" t="n">
-        <v>19.232</v>
+        <v>11.556</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>126.18</v>
+        <v>101.2</v>
       </c>
       <c r="D15" t="n">
-        <v>207.52</v>
+        <v>180.8</v>
       </c>
       <c r="E15" t="n">
-        <v>17.108</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>56.52</v>
+        <v>160.94</v>
       </c>
       <c r="D16" t="n">
-        <v>132.46</v>
+        <v>227.24</v>
       </c>
       <c r="E16" t="n">
-        <v>22.044</v>
+        <v>19.136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>76.73999999999999</v>
+        <v>180.8</v>
       </c>
       <c r="D17" t="n">
-        <v>146.88</v>
+        <v>233.08</v>
       </c>
       <c r="E17" t="n">
-        <v>23.092</v>
+        <v>14.272</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>150.68</v>
+        <v>135.68</v>
       </c>
       <c r="D18" t="n">
-        <v>207.68</v>
+        <v>171.12</v>
       </c>
       <c r="E18" t="n">
-        <v>14.792</v>
+        <v>20.308</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>132.46</v>
+        <v>77.2</v>
       </c>
       <c r="D19" t="n">
-        <v>178.22</v>
+        <v>158.64</v>
       </c>
       <c r="E19" t="n">
-        <v>18.108</v>
+        <v>20.876</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>149.4</v>
+        <v>171.12</v>
       </c>
       <c r="D20" t="n">
-        <v>201.12</v>
+        <v>238.54</v>
       </c>
       <c r="E20" t="n">
-        <v>15.468</v>
+        <v>16.656</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>146.88</v>
+        <v>227.24</v>
       </c>
       <c r="D21" t="n">
-        <v>207.38</v>
+        <v>287.8</v>
       </c>
       <c r="E21" t="n">
-        <v>18.672</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>207.38</v>
+        <v>233.08</v>
       </c>
       <c r="D22" t="n">
-        <v>267.38</v>
+        <v>286.38</v>
       </c>
       <c r="E22" t="n">
-        <v>14.292</v>
+        <v>10.072</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>178.22</v>
+        <v>286.38</v>
       </c>
       <c r="D23" t="n">
-        <v>247.2</v>
+        <v>376.32</v>
       </c>
       <c r="E23" t="n">
-        <v>15.3</v>
+        <v>7.168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>207.52</v>
+        <v>238.54</v>
       </c>
       <c r="D24" t="n">
-        <v>283.22</v>
+        <v>312.76</v>
       </c>
       <c r="E24" t="n">
-        <v>13.628</v>
+        <v>13.344</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>177.28</v>
+        <v>376.32</v>
       </c>
       <c r="D25" t="n">
-        <v>258.88</v>
+        <v>431.96</v>
       </c>
       <c r="E25" t="n">
-        <v>13.712</v>
+        <v>4.204</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>258.88</v>
+        <v>312.76</v>
       </c>
       <c r="D26" t="n">
-        <v>328.18</v>
+        <v>366.96</v>
       </c>
       <c r="E26" t="n">
-        <v>9.872</v>
+        <v>10.044</v>
       </c>
     </row>
     <row r="27">
@@ -941,74 +941,74 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>267.38</v>
+        <v>73.88</v>
       </c>
       <c r="D27" t="n">
-        <v>325.16</v>
+        <v>125.66</v>
       </c>
       <c r="E27" t="n">
-        <v>9.644</v>
+        <v>22.704</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>328.18</v>
+        <v>125.66</v>
       </c>
       <c r="D28" t="n">
-        <v>400.52</v>
+        <v>200.92</v>
       </c>
       <c r="E28" t="n">
-        <v>5.728</v>
+        <v>18.788</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>400.52</v>
+        <v>200.92</v>
       </c>
       <c r="D29" t="n">
-        <v>452.6</v>
+        <v>261.54</v>
       </c>
       <c r="E29" t="n">
-        <v>2.14</v>
+        <v>15.356</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>201.12</v>
+        <v>366.96</v>
       </c>
       <c r="D30" t="n">
-        <v>249.8</v>
+        <v>430.84</v>
       </c>
       <c r="E30" t="n">
-        <v>12.22</v>
+        <v>7.236</v>
       </c>
     </row>
     <row r="31">
@@ -1017,397 +1017,397 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>325.16</v>
+        <v>261.54</v>
       </c>
       <c r="D31" t="n">
-        <v>376.66</v>
+        <v>301.96</v>
       </c>
       <c r="E31" t="n">
-        <v>5.624</v>
+        <v>12.444</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>247.2</v>
+        <v>431.96</v>
       </c>
       <c r="D32" t="n">
-        <v>297.82</v>
+        <v>492.68</v>
       </c>
       <c r="E32" t="n">
-        <v>11.868</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>376.66</v>
+        <v>492.68</v>
       </c>
       <c r="D33" t="n">
-        <v>427.32</v>
+        <v>559.1799999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>1.688</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>427.32</v>
+        <v>287.8</v>
       </c>
       <c r="D34" t="n">
-        <v>510.54</v>
+        <v>339.24</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>12.176</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>510.54</v>
+        <v>339.24</v>
       </c>
       <c r="D35" t="n">
-        <v>588.24</v>
+        <v>401.14</v>
       </c>
       <c r="E35" t="n">
-        <v>24.4</v>
+        <v>8.616</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>297.82</v>
+        <v>559.1799999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>367.02</v>
+        <v>595.8200000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>9.028</v>
+        <v>27.536</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>207.68</v>
+        <v>301.96</v>
       </c>
       <c r="D37" t="n">
-        <v>267.42</v>
+        <v>345.2</v>
       </c>
       <c r="E37" t="n">
-        <v>10.928</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>267.42</v>
+        <v>345.2</v>
       </c>
       <c r="D38" t="n">
-        <v>316.72</v>
+        <v>411.4</v>
       </c>
       <c r="E38" t="n">
-        <v>7.628</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>249.8</v>
+        <v>296.14</v>
       </c>
       <c r="D39" t="n">
-        <v>307</v>
+        <v>363.14</v>
       </c>
       <c r="E39" t="n">
-        <v>8.140000000000001</v>
+        <v>7.956</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>283.22</v>
+        <v>411.4</v>
       </c>
       <c r="D40" t="n">
-        <v>363.24</v>
+        <v>476.7</v>
       </c>
       <c r="E40" t="n">
-        <v>10.716</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>363.24</v>
+        <v>476.7</v>
       </c>
       <c r="D41" t="n">
-        <v>408.86</v>
+        <v>551.92</v>
       </c>
       <c r="E41" t="n">
-        <v>7.284</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>307</v>
+        <v>430.84</v>
       </c>
       <c r="D42" t="n">
-        <v>379.9</v>
+        <v>481.46</v>
       </c>
       <c r="E42" t="n">
-        <v>3.94</v>
+        <v>3.804</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>452.6</v>
+        <v>481.46</v>
       </c>
       <c r="D43" t="n">
-        <v>520.3200000000001</v>
+        <v>539.0599999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>520.3200000000001</v>
+        <v>539.0599999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>580.34</v>
+        <v>630.4299999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>27.168</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>367.02</v>
+        <v>595.8200000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>461.7</v>
+        <v>679.28</v>
       </c>
       <c r="E45" t="n">
-        <v>4.66</v>
+        <v>24.26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>461.7</v>
+        <v>551.92</v>
       </c>
       <c r="D46" t="n">
-        <v>531.84</v>
+        <v>611.9400000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>1.756</v>
+        <v>27.168</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>531.84</v>
+        <v>363.14</v>
       </c>
       <c r="D47" t="n">
-        <v>629.73</v>
+        <v>430.72</v>
       </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>3.308</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>316.72</v>
+        <v>430.72</v>
       </c>
       <c r="D48" t="n">
-        <v>374.86</v>
+        <v>510.7</v>
       </c>
       <c r="E48" t="n">
-        <v>4.924</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>588.24</v>
+        <v>510.7</v>
       </c>
       <c r="D49" t="n">
-        <v>630.04</v>
+        <v>577.4400000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>21.84</v>
+        <v>25.996</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>629.73</v>
+        <v>158.64</v>
       </c>
       <c r="D50" t="n">
-        <v>693.53</v>
+        <v>228.94</v>
       </c>
       <c r="E50" t="n">
-        <v>25.8</v>
+        <v>16.456</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>693.53</v>
+        <v>228.94</v>
       </c>
       <c r="D51" t="n">
-        <v>764.03</v>
+        <v>308.84</v>
       </c>
       <c r="E51" t="n">
-        <v>21.88</v>
+        <v>12.556</v>
       </c>
     </row>
     <row r="52">
@@ -1416,128 +1416,128 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>764.03</v>
+        <v>630.4299999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>825.17</v>
+        <v>706.29</v>
       </c>
       <c r="E52" t="n">
-        <v>18.856</v>
+        <v>26.064</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>374.86</v>
+        <v>308.84</v>
       </c>
       <c r="D53" t="n">
-        <v>443.9</v>
+        <v>373.62</v>
       </c>
       <c r="E53" t="n">
-        <v>1.14</v>
+        <v>8.188000000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>443.9</v>
+        <v>611.9400000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>533.12</v>
+        <v>676.34</v>
       </c>
       <c r="E54" t="n">
-        <v>30</v>
+        <v>23.328</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>825.17</v>
+        <v>401.14</v>
       </c>
       <c r="D55" t="n">
-        <v>869.55</v>
+        <v>469.24</v>
       </c>
       <c r="E55" t="n">
-        <v>16.048</v>
+        <v>4.416</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>408.86</v>
+        <v>373.62</v>
       </c>
       <c r="D56" t="n">
-        <v>463.52</v>
+        <v>430.7</v>
       </c>
       <c r="E56" t="n">
-        <v>4.428</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>379.9</v>
+        <v>577.4400000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>456.5</v>
+        <v>653.6799999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.38</v>
+        <v>21.992</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>456.5</v>
+        <v>430.7</v>
       </c>
       <c r="D58" t="n">
-        <v>547.24</v>
+        <v>524</v>
       </c>
       <c r="E58" t="n">
         <v>30</v>
@@ -1545,40 +1545,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>630.04</v>
+        <v>524</v>
       </c>
       <c r="D59" t="n">
-        <v>663.64</v>
+        <v>596</v>
       </c>
       <c r="E59" t="n">
-        <v>19.12</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>547.24</v>
+        <v>676.34</v>
       </c>
       <c r="D60" t="n">
-        <v>602.04</v>
+        <v>756.76</v>
       </c>
       <c r="E60" t="n">
-        <v>26.22</v>
+        <v>19.896</v>
       </c>
     </row>
     <row r="61">
@@ -1587,74 +1587,74 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>533.12</v>
+        <v>679.28</v>
       </c>
       <c r="D61" t="n">
-        <v>615.42</v>
+        <v>713.76</v>
       </c>
       <c r="E61" t="n">
-        <v>26.4</v>
+        <v>21.452</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>663.64</v>
+        <v>713.76</v>
       </c>
       <c r="D62" t="n">
-        <v>731.24</v>
+        <v>791.1</v>
       </c>
       <c r="E62" t="n">
-        <v>15.48</v>
+        <v>17.308</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>463.52</v>
+        <v>706.29</v>
       </c>
       <c r="D63" t="n">
-        <v>556.0599999999999</v>
+        <v>763.29</v>
       </c>
       <c r="E63" t="n">
-        <v>30</v>
+        <v>21.984</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>556.0599999999999</v>
+        <v>469.24</v>
       </c>
       <c r="D64" t="n">
-        <v>632.46</v>
+        <v>520.96</v>
       </c>
       <c r="E64" t="n">
-        <v>25.02</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="65">
@@ -1663,74 +1663,74 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>602.04</v>
+        <v>520.96</v>
       </c>
       <c r="D65" t="n">
-        <v>703.8200000000001</v>
+        <v>605.83</v>
       </c>
       <c r="E65" t="n">
-        <v>22.132</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>703.8200000000001</v>
+        <v>653.6799999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>767.16</v>
+        <v>715.28</v>
       </c>
       <c r="E66" t="n">
-        <v>19.428</v>
+        <v>17.972</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>731.24</v>
+        <v>605.83</v>
       </c>
       <c r="D67" t="n">
-        <v>812.26</v>
+        <v>671.33</v>
       </c>
       <c r="E67" t="n">
-        <v>12.488</v>
+        <v>25.62</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>615.42</v>
+        <v>756.76</v>
       </c>
       <c r="D68" t="n">
-        <v>659.58</v>
+        <v>815.9400000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>23.124</v>
+        <v>16.088</v>
       </c>
     </row>
     <row r="69">
@@ -1739,55 +1739,55 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>767.16</v>
+        <v>671.33</v>
       </c>
       <c r="D69" t="n">
-        <v>829.0599999999999</v>
+        <v>735.37</v>
       </c>
       <c r="E69" t="n">
-        <v>15.348</v>
+        <v>21.836</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>632.46</v>
+        <v>763.29</v>
       </c>
       <c r="D70" t="n">
-        <v>688.1799999999999</v>
+        <v>818.15</v>
       </c>
       <c r="E70" t="n">
-        <v>21.588</v>
+        <v>19.128</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>688.1799999999999</v>
+        <v>735.37</v>
       </c>
       <c r="D71" t="n">
-        <v>747.34</v>
+        <v>799.97</v>
       </c>
       <c r="E71" t="n">
-        <v>17.792</v>
+        <v>18.996</v>
       </c>
     </row>
   </sheetData>
